--- a/input/vl/built_data/missing_values_percentaje_1921.xlsx
+++ b/input/vl/built_data/missing_values_percentaje_1921.xlsx
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03583295328685908</v>
+        <v>0.03729752770673487</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03583295328685908</v>
+        <v>0.03729752770673487</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.167611353616956</v>
+        <v>4.830029838022165</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.171954741894151</v>
+        <v>4.835358056265985</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03583295328685908</v>
+        <v>0.03729752770673487</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03583295328685908</v>
+        <v>0.03729752770673487</v>
       </c>
     </row>
     <row r="12">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03583295328685908</v>
+        <v>0.03729752770673487</v>
       </c>
     </row>
     <row r="13">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03583295328685908</v>
+        <v>0.03729752770673487</v>
       </c>
     </row>
     <row r="14">
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03583295328685908</v>
+        <v>0.03729752770673487</v>
       </c>
     </row>
     <row r="15">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03583295328685908</v>
+        <v>0.03729752770673487</v>
       </c>
     </row>
     <row r="16">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03583295328685908</v>
+        <v>0.03729752770673487</v>
       </c>
     </row>
     <row r="17">
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03583295328685908</v>
+        <v>0.03729752770673487</v>
       </c>
     </row>
     <row r="18">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.04669142397984668</v>
+        <v>0.04928601875532822</v>
       </c>
     </row>
     <row r="19">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.04669142397984668</v>
+        <v>0.04928601875532822</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.04669142397984668</v>
+        <v>0.04928601875532822</v>
       </c>
     </row>
     <row r="21">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.04669142397984668</v>
+        <v>0.04928601875532822</v>
       </c>
     </row>
     <row r="22">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.04669142397984668</v>
+        <v>0.04928601875532822</v>
       </c>
     </row>
     <row r="23">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.04669142397984668</v>
+        <v>0.04928601875532822</v>
       </c>
     </row>
     <row r="24">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.04669142397984668</v>
+        <v>0.04928601875532822</v>
       </c>
     </row>
     <row r="25">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.04669142397984668</v>
+        <v>0.04928601875532822</v>
       </c>
     </row>
     <row r="26">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.04669142397984668</v>
+        <v>0.04928601875532822</v>
       </c>
     </row>
     <row r="27">
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.04669142397984668</v>
+        <v>0.04928601875532822</v>
       </c>
     </row>
     <row r="28">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.04669142397984668</v>
+        <v>0.04928601875532822</v>
       </c>
     </row>
     <row r="29">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.04669142397984668</v>
+        <v>0.04928601875532822</v>
       </c>
     </row>
     <row r="30">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.04669142397984668</v>
+        <v>0.04928601875532822</v>
       </c>
     </row>
     <row r="31">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.04669142397984668</v>
+        <v>0.04928601875532822</v>
       </c>
     </row>
     <row r="32">
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.04669142397984668</v>
+        <v>0.04928601875532822</v>
       </c>
     </row>
     <row r="33">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.04669142397984668</v>
+        <v>0.04928601875532822</v>
       </c>
     </row>
     <row r="34">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.04669142397984668</v>
+        <v>0.04928601875532822</v>
       </c>
     </row>
     <row r="35">
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.04669142397984668</v>
+        <v>0.04928601875532822</v>
       </c>
     </row>
     <row r="36">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.04669142397984668</v>
+        <v>0.04928601875532822</v>
       </c>
     </row>
     <row r="37">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.04669142397984668</v>
+        <v>0.04928601875532822</v>
       </c>
     </row>
     <row r="38">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.04669142397984668</v>
+        <v>0.04928601875532822</v>
       </c>
     </row>
     <row r="39">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1205290246921624</v>
+        <v>0.130541346973572</v>
       </c>
     </row>
     <row r="40">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1205290246921624</v>
+        <v>0.130541346973572</v>
       </c>
     </row>
     <row r="41">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1205290246921624</v>
+        <v>0.130541346973572</v>
       </c>
     </row>
     <row r="42">
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1205290246921624</v>
+        <v>0.130541346973572</v>
       </c>
     </row>
     <row r="43">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1205290246921624</v>
+        <v>0.130541346973572</v>
       </c>
     </row>
     <row r="44">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1205290246921624</v>
+        <v>0.130541346973572</v>
       </c>
     </row>
     <row r="45">
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1205290246921624</v>
+        <v>0.130541346973572</v>
       </c>
     </row>
     <row r="46">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1205290246921624</v>
+        <v>0.130541346973572</v>
       </c>
     </row>
     <row r="47">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1205290246921624</v>
+        <v>0.130541346973572</v>
       </c>
     </row>
     <row r="48">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1205290246921624</v>
+        <v>0.130541346973572</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1205290246921624</v>
+        <v>0.130541346973572</v>
       </c>
     </row>
     <row r="50">
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1205290246921624</v>
+        <v>0.130541346973572</v>
       </c>
     </row>
     <row r="51">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1205290246921624</v>
+        <v>0.130541346973572</v>
       </c>
     </row>
     <row r="52">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1205290246921624</v>
+        <v>0.130541346973572</v>
       </c>
     </row>
     <row r="53">
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1205290246921624</v>
+        <v>0.130541346973572</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1205290246921624</v>
+        <v>0.130541346973572</v>
       </c>
     </row>
     <row r="55">
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1205290246921624</v>
+        <v>0.130541346973572</v>
       </c>
     </row>
     <row r="56">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1205290246921624</v>
+        <v>0.130541346973572</v>
       </c>
     </row>
     <row r="57">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1205290246921624</v>
+        <v>0.130541346973572</v>
       </c>
     </row>
     <row r="58">
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1205290246921624</v>
+        <v>0.130541346973572</v>
       </c>
     </row>
     <row r="59">
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2030534019588681</v>
+        <v>0.2144607843137255</v>
       </c>
     </row>
     <row r="60">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2280278845527396</v>
+        <v>0.2424339300937766</v>
       </c>
     </row>
     <row r="61">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2334571198992334</v>
+        <v>0.2477621483375959</v>
       </c>
     </row>
     <row r="62">
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2356288140378309</v>
+        <v>0.2504262574595055</v>
       </c>
     </row>
     <row r="63">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2367146611071297</v>
+        <v>0.2517583120204603</v>
       </c>
     </row>
     <row r="64">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.2367146611071297</v>
+        <v>0.2517583120204603</v>
       </c>
     </row>
     <row r="65">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2378005081764284</v>
+        <v>0.2530903665814152</v>
       </c>
     </row>
     <row r="66">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.2388863552457272</v>
+        <v>0.25442242114237</v>
       </c>
     </row>
     <row r="67">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.2410580493843247</v>
+        <v>0.2570865302642796</v>
       </c>
     </row>
     <row r="68">
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.2454014376615197</v>
+        <v>0.2610826939471441</v>
       </c>
     </row>
     <row r="69">
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.185679848850088</v>
+        <v>0.1944799658994033</v>
       </c>
     </row>
     <row r="70">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9729189740916889</v>
+        <v>0.9963768115942028</v>
       </c>
     </row>
     <row r="73">
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.9729189740916889</v>
+        <v>0.9963768115942028</v>
       </c>
     </row>
     <row r="74">
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.9729189740916889</v>
+        <v>0.9963768115942028</v>
       </c>
     </row>
     <row r="75">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9729189740916889</v>
+        <v>0.9963768115942028</v>
       </c>
     </row>
     <row r="76">
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9207983147653485</v>
+        <v>1.019021739130435</v>
       </c>
     </row>
     <row r="93">
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>4.196798922839707</v>
+        <v>3.097026854219949</v>
       </c>
     </row>
     <row r="113">
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>6.649727452385607</v>
+        <v>4.556958653026428</v>
       </c>
     </row>
     <row r="114">

--- a/input/vl/built_data/missing_values_percentaje_1921.xlsx
+++ b/input/vl/built_data/missing_values_percentaje_1921.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B140"/>
+  <dimension ref="A1:B141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1821,6 +1821,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>n_personas_hogar</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/input/vl/built_data/missing_values_percentaje_1921.xlsx
+++ b/input/vl/built_data/missing_values_percentaje_1921.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03729752770673487</v>
+        <v>0.0440642638819917</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03729752770673487</v>
+        <v>0.0440642638819917</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.830029838022165</v>
+        <v>4.647730690410078</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.835358056265985</v>
+        <v>4.651227854210235</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03729752770673487</v>
+        <v>0.0440642638819917</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03729752770673487</v>
+        <v>0.0440642638819917</v>
       </c>
     </row>
     <row r="12">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03729752770673487</v>
+        <v>0.0440642638819917</v>
       </c>
     </row>
     <row r="13">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03729752770673487</v>
+        <v>0.0440642638819917</v>
       </c>
     </row>
     <row r="14">
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03729752770673487</v>
+        <v>0.0440642638819917</v>
       </c>
     </row>
     <row r="15">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03729752770673487</v>
+        <v>0.0440642638819917</v>
       </c>
     </row>
     <row r="16">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03729752770673487</v>
+        <v>0.0440642638819917</v>
       </c>
     </row>
     <row r="17">
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03729752770673487</v>
+        <v>0.0440642638819917</v>
       </c>
     </row>
     <row r="18">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.04928601875532822</v>
+        <v>0.04826086044218139</v>
       </c>
     </row>
     <row r="19">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.04928601875532822</v>
+        <v>0.04826086044218139</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.04928601875532822</v>
+        <v>0.04826086044218139</v>
       </c>
     </row>
     <row r="21">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.04928601875532822</v>
+        <v>0.04826086044218139</v>
       </c>
     </row>
     <row r="22">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.04928601875532822</v>
+        <v>0.04826086044218139</v>
       </c>
     </row>
     <row r="23">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.04928601875532822</v>
+        <v>0.04826086044218139</v>
       </c>
     </row>
     <row r="24">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.04928601875532822</v>
+        <v>0.04826086044218139</v>
       </c>
     </row>
     <row r="25">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.04928601875532822</v>
+        <v>0.04826086044218139</v>
       </c>
     </row>
     <row r="26">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.04928601875532822</v>
+        <v>0.04826086044218139</v>
       </c>
     </row>
     <row r="27">
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.04928601875532822</v>
+        <v>0.04826086044218139</v>
       </c>
     </row>
     <row r="28">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.04928601875532822</v>
+        <v>0.04826086044218139</v>
       </c>
     </row>
     <row r="29">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.04928601875532822</v>
+        <v>0.04826086044218139</v>
       </c>
     </row>
     <row r="30">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.04928601875532822</v>
+        <v>0.04826086044218139</v>
       </c>
     </row>
     <row r="31">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.04928601875532822</v>
+        <v>0.04826086044218139</v>
       </c>
     </row>
     <row r="32">
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.04928601875532822</v>
+        <v>0.04826086044218139</v>
       </c>
     </row>
     <row r="33">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.04928601875532822</v>
+        <v>0.04826086044218139</v>
       </c>
     </row>
     <row r="34">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.04928601875532822</v>
+        <v>0.04826086044218139</v>
       </c>
     </row>
     <row r="35">
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.04928601875532822</v>
+        <v>0.04826086044218139</v>
       </c>
     </row>
     <row r="36">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.04928601875532822</v>
+        <v>0.04826086044218139</v>
       </c>
     </row>
     <row r="37">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.04928601875532822</v>
+        <v>0.04826086044218139</v>
       </c>
     </row>
     <row r="38">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.04928601875532822</v>
+        <v>0.04826086044218139</v>
       </c>
     </row>
     <row r="39">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.130541346973572</v>
+        <v>0.1112098088450267</v>
       </c>
     </row>
     <row r="40">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.130541346973572</v>
+        <v>0.1112098088450267</v>
       </c>
     </row>
     <row r="41">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.130541346973572</v>
+        <v>0.1112098088450267</v>
       </c>
     </row>
     <row r="42">
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.130541346973572</v>
+        <v>0.1112098088450267</v>
       </c>
     </row>
     <row r="43">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.130541346973572</v>
+        <v>0.1112098088450267</v>
       </c>
     </row>
     <row r="44">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.130541346973572</v>
+        <v>0.1112098088450267</v>
       </c>
     </row>
     <row r="45">
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.130541346973572</v>
+        <v>0.1112098088450267</v>
       </c>
     </row>
     <row r="46">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.130541346973572</v>
+        <v>0.1112098088450267</v>
       </c>
     </row>
     <row r="47">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.130541346973572</v>
+        <v>0.1112098088450267</v>
       </c>
     </row>
     <row r="48">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.130541346973572</v>
+        <v>0.1112098088450267</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.130541346973572</v>
+        <v>0.1112098088450267</v>
       </c>
     </row>
     <row r="50">
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.130541346973572</v>
+        <v>0.1112098088450267</v>
       </c>
     </row>
     <row r="51">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.130541346973572</v>
+        <v>0.1112098088450267</v>
       </c>
     </row>
     <row r="52">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.130541346973572</v>
+        <v>0.1112098088450267</v>
       </c>
     </row>
     <row r="53">
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.130541346973572</v>
+        <v>0.1112098088450267</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.130541346973572</v>
+        <v>0.1112098088450267</v>
       </c>
     </row>
     <row r="55">
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.130541346973572</v>
+        <v>0.1112098088450267</v>
       </c>
     </row>
     <row r="56">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.130541346973572</v>
+        <v>0.1112098088450267</v>
       </c>
     </row>
     <row r="57">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.130541346973572</v>
+        <v>0.1112098088450267</v>
       </c>
     </row>
     <row r="58">
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.130541346973572</v>
+        <v>0.1112098088450267</v>
       </c>
     </row>
     <row r="59">
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2144607843137255</v>
+        <v>0.2273156470102747</v>
       </c>
     </row>
     <row r="60">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2424339300937766</v>
+        <v>0.2552929574115392</v>
       </c>
     </row>
     <row r="61">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2477621483375959</v>
+        <v>0.2615878522518238</v>
       </c>
     </row>
     <row r="62">
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2504262574595055</v>
+        <v>0.2643855832919502</v>
       </c>
     </row>
     <row r="63">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2517583120204603</v>
+        <v>0.2657844488120135</v>
       </c>
     </row>
     <row r="64">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.2517583120204603</v>
+        <v>0.2671833143320767</v>
       </c>
     </row>
     <row r="65">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2530903665814152</v>
+        <v>0.2678827470921083</v>
       </c>
     </row>
     <row r="66">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.25442242114237</v>
+        <v>0.2685821798521399</v>
       </c>
     </row>
     <row r="67">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.2570865302642796</v>
+        <v>0.272079343652298</v>
       </c>
     </row>
     <row r="68">
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.2610826939471441</v>
+        <v>0.2776748057325509</v>
       </c>
     </row>
     <row r="69">
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1944799658994033</v>
+        <v>0.1447825813265442</v>
       </c>
     </row>
     <row r="70">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9963768115942028</v>
+        <v>0.9113608863211935</v>
       </c>
     </row>
     <row r="73">
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.9963768115942028</v>
+        <v>0.9113608863211935</v>
       </c>
     </row>
     <row r="74">
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.9963768115942028</v>
+        <v>0.9113608863211935</v>
       </c>
     </row>
     <row r="75">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9963768115942028</v>
+        <v>0.9113608863211935</v>
       </c>
     </row>
     <row r="76">
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1.019021739130435</v>
+        <v>0.9078637225210354</v>
       </c>
     </row>
     <row r="93">
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3.097026854219949</v>
+        <v>3.008959733656005</v>
       </c>
     </row>
     <row r="113">
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>4.556958653026428</v>
+        <v>4.712078504332986</v>
       </c>
     </row>
     <row r="114">
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>47.49218383890665</v>
       </c>
     </row>
     <row r="139">
@@ -1824,10 +1824,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
+          <t>ipc_lima_2020</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>52.50781616109336</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
           <t>n_personas_hogar</t>
         </is>
       </c>
-      <c r="B141" t="n">
+      <c r="B142" t="n">
         <v>0</v>
       </c>
     </row>
